--- a/ig/sd-add-associatedPartyR5/CodeSystem-eclaire-study-party-role-code-system.xlsx
+++ b/ig/sd-add-associatedPartyR5/CodeSystem-eclaire-study-party-role-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-12T15:35:25+00:00</t>
+    <t>2024-02-12T18:00:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-add-associatedPartyR5/CodeSystem-eclaire-study-party-role-code-system.xlsx
+++ b/ig/sd-add-associatedPartyR5/CodeSystem-eclaire-study-party-role-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-12T18:00:18+00:00</t>
+    <t>2024-02-15T16:51:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-add-associatedPartyR5/CodeSystem-eclaire-study-party-role-code-system.xlsx
+++ b/ig/sd-add-associatedPartyR5/CodeSystem-eclaire-study-party-role-code-system.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="54">
   <si>
     <t>Property</t>
   </si>
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Définition des rôles des parties prenantes inspiré de https://hl7.org/fhir/codesystem-research-study-party-role.html</t>
+    <t>Définition des rôles des parties prenantes inspiré de http://hl7.org/fhir/research-study-party-role</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-15T16:51:45+00:00</t>
+    <t>2024-02-15T16:54:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -669,7 +669,9 @@
       <c r="C13" t="s" s="2">
         <v>53</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" t="s" s="2">
+        <v>53</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/ig/sd-add-associatedPartyR5/CodeSystem-eclaire-study-party-role-code-system.xlsx
+++ b/ig/sd-add-associatedPartyR5/CodeSystem-eclaire-study-party-role-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-15T16:54:08+00:00</t>
+    <t>2024-02-16T09:13:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-add-associatedPartyR5/CodeSystem-eclaire-study-party-role-code-system.xlsx
+++ b/ig/sd-add-associatedPartyR5/CodeSystem-eclaire-study-party-role-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-16T09:13:22+00:00</t>
+    <t>2024-02-16T15:07:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
